--- a/data/trans_dic/P1001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09171306032917657</v>
+        <v>0.0911526032609881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1115417757952214</v>
+        <v>0.1111612621102068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07261946003823598</v>
+        <v>0.07304062501214345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08906650765539463</v>
+        <v>0.08935440565187533</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1201586111936307</v>
+        <v>0.1189941830557476</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2170596162410048</v>
+        <v>0.2187003472285027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.199960180435636</v>
+        <v>0.1995886181329069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2054699557874406</v>
+        <v>0.205047182362806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1115438257366598</v>
+        <v>0.1118470334736989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1806899502643205</v>
+        <v>0.1793676685042966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1508110972562414</v>
+        <v>0.1517047657244897</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1636747186655415</v>
+        <v>0.1638530979849906</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1309092310471121</v>
+        <v>0.130620580281196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1558307315622189</v>
+        <v>0.1581284541708203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.111919314937393</v>
+        <v>0.1118168647459772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1393463825886148</v>
+        <v>0.1382426496017344</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1592670621301434</v>
+        <v>0.1579265433039512</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2658804571877125</v>
+        <v>0.2675946335679028</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2582112927560931</v>
+        <v>0.257504443168701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2491314329136656</v>
+        <v>0.2521468726725982</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1400747774594864</v>
+        <v>0.1392546834097618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2125812474876946</v>
+        <v>0.2123436951372129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1873041882128962</v>
+        <v>0.1873098978931723</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.197856846804025</v>
+        <v>0.197764441857369</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02789799952231476</v>
+        <v>0.0272527739800287</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03711455021481207</v>
+        <v>0.03654671904076883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04840045641161569</v>
+        <v>0.04751677953556468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04285186718415251</v>
+        <v>0.04438932625225428</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05703008211411804</v>
+        <v>0.05762621754136812</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08432241100804638</v>
+        <v>0.08500036310289345</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07319791883263668</v>
+        <v>0.07500140416573915</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07878191380622938</v>
+        <v>0.07798528893525922</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04420321319032977</v>
+        <v>0.04448538533041014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06299024672178978</v>
+        <v>0.06254161268955336</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06368190137282133</v>
+        <v>0.06390510400410343</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06308634847850235</v>
+        <v>0.06363330876546584</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04638773280646676</v>
+        <v>0.04589141194072362</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05604521923302996</v>
+        <v>0.0561948937141267</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06887132330159788</v>
+        <v>0.06985610744211304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06376227375402299</v>
+        <v>0.06472942560329363</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08365747777834175</v>
+        <v>0.08380929246803544</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1149896442237683</v>
+        <v>0.1154121885448551</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.100613237167225</v>
+        <v>0.1003401359893488</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1011747266371144</v>
+        <v>0.1007664486263247</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0603538009558085</v>
+        <v>0.05967067254680127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07980145055919168</v>
+        <v>0.0802717009187246</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07957570273589969</v>
+        <v>0.08090027102670255</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07999048533345809</v>
+        <v>0.07928565978772295</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.0612617207726851</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07677492426967734</v>
+        <v>0.07677492426967733</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04871316837894368</v>
@@ -969,7 +969,7 @@
         <v>0.04553954969350318</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0589266410851266</v>
+        <v>0.05892664108512657</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02556801827548304</v>
+        <v>0.02600002048469025</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02652009096801812</v>
+        <v>0.02871280333193427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01741421116937435</v>
+        <v>0.01786820679666902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02659270448076325</v>
+        <v>0.02670320706792387</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03925203527461894</v>
+        <v>0.03801568539248393</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03237429558985724</v>
+        <v>0.03275814569571654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04335408110626933</v>
+        <v>0.04273073932522397</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05978430882621074</v>
+        <v>0.05862121694594405</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03612211476527756</v>
+        <v>0.03633798407307529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03517532657143697</v>
+        <v>0.03409865475153091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03401450006854217</v>
+        <v>0.03432900227214332</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04631263568955706</v>
+        <v>0.04755774381748091</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06154030350234228</v>
+        <v>0.06225791186100401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07388576228534366</v>
+        <v>0.07365647434139092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04942866179371463</v>
+        <v>0.04878726629814983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05861638349173674</v>
+        <v>0.05946689413205718</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08498506465513617</v>
+        <v>0.08277636662628639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07689643686224087</v>
+        <v>0.07776489030464517</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08465793253013133</v>
+        <v>0.08599502981889701</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09737774551384264</v>
+        <v>0.0953399583246116</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06359717983699227</v>
+        <v>0.06430955538785572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06809223667424268</v>
+        <v>0.06760858613857083</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05974894819073052</v>
+        <v>0.06134578134196282</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07159820451252703</v>
+        <v>0.07175710149766427</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06098234432033373</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0603047239007461</v>
+        <v>0.06030472390074609</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09418657804059452</v>
@@ -1105,7 +1105,7 @@
         <v>0.09236754215205412</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08955521277727341</v>
+        <v>0.08955521277727339</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.062002512562292</v>
+        <v>0.06206600431456643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05313702093506047</v>
+        <v>0.05330488709017863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05136786588950575</v>
+        <v>0.05326786274141917</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1347973271287286</v>
+        <v>0.1339742459991718</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1107019800539495</v>
+        <v>0.1115966095161509</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1090341654491894</v>
+        <v>0.1081240736505414</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1023098925992412</v>
+        <v>0.1018450921730077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08550634001003604</v>
+        <v>0.08536753207344257</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08419719996061137</v>
+        <v>0.08336834585669904</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0812359660630096</v>
+        <v>0.08037231011088361</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06998518214510334</v>
+        <v>0.07011608769804618</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06957385893543364</v>
+        <v>0.06940921127406503</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1584000054297889</v>
+        <v>0.1588011109364145</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1342586226664484</v>
+        <v>0.1341074335553779</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.126182405108298</v>
+        <v>0.1264882114537412</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1166359193309922</v>
+        <v>0.1176870051282552</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1003024305826341</v>
+        <v>0.1000262452109577</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09636939858489503</v>
+        <v>0.09615570991112338</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>94622</v>
+        <v>94044</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>108713</v>
+        <v>108343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54780</v>
+        <v>55098</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51473</v>
+        <v>51639</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>158022</v>
+        <v>156491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>290153</v>
+        <v>292346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>198892</v>
+        <v>198523</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>168609</v>
+        <v>168262</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>261775</v>
+        <v>262487</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>417644</v>
+        <v>414588</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>263770</v>
+        <v>265333</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>228902</v>
+        <v>229151</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>135062</v>
+        <v>134764</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>151879</v>
+        <v>154119</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84426</v>
+        <v>84349</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80530</v>
+        <v>79892</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>209454</v>
+        <v>207691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>355414</v>
+        <v>357705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>256832</v>
+        <v>256129</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>204438</v>
+        <v>206912</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>328732</v>
+        <v>326808</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>491357</v>
+        <v>490808</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>327596</v>
+        <v>327606</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>276706</v>
+        <v>276577</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47243</v>
+        <v>46150</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72818</v>
+        <v>71703</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>100498</v>
+        <v>98663</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>95559</v>
+        <v>98987</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>90545</v>
+        <v>91492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>148222</v>
+        <v>149414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>145539</v>
+        <v>149125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>170987</v>
+        <v>169258</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>145035</v>
+        <v>145960</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>234309</v>
+        <v>232640</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>258847</v>
+        <v>259754</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>277603</v>
+        <v>280010</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78554</v>
+        <v>77713</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>109959</v>
+        <v>110253</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143003</v>
+        <v>145048</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>142189</v>
+        <v>144345</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>132821</v>
+        <v>133062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>202129</v>
+        <v>202872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>200049</v>
+        <v>199506</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>219588</v>
+        <v>218702</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>198026</v>
+        <v>195785</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>296843</v>
+        <v>298592</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>323450</v>
+        <v>328834</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>351987</v>
+        <v>348886</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14098</v>
+        <v>14337</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12761</v>
+        <v>13816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9524</v>
+        <v>9772</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18923</v>
+        <v>19002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18700</v>
+        <v>18111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14848</v>
+        <v>15024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23807</v>
+        <v>23465</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43934</v>
+        <v>43079</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37127</v>
+        <v>37349</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33058</v>
+        <v>32046</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37281</v>
+        <v>37626</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>66990</v>
+        <v>68791</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33934</v>
+        <v>34330</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35552</v>
+        <v>35442</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27032</v>
+        <v>26681</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41711</v>
+        <v>42316</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40488</v>
+        <v>39436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35267</v>
+        <v>35665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46489</v>
+        <v>47223</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71561</v>
+        <v>70063</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65366</v>
+        <v>66099</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>63994</v>
+        <v>63539</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>65486</v>
+        <v>67237</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>103564</v>
+        <v>103794</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>211912</v>
+        <v>212129</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>179477</v>
+        <v>180044</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>180788</v>
+        <v>187475</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>478958</v>
+        <v>476034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>391010</v>
+        <v>394170</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>406246</v>
+        <v>402855</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>713199</v>
+        <v>709959</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>590825</v>
+        <v>589866</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>610038</v>
+        <v>604032</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>277648</v>
+        <v>274696</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>236383</v>
+        <v>236825</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>244864</v>
+        <v>244284</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>562823</v>
+        <v>564248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>474215</v>
+        <v>473681</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>470138</v>
+        <v>471277</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>813065</v>
+        <v>820392</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>693062</v>
+        <v>691153</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>698229</v>
+        <v>696681</v>
       </c>
     </row>
     <row r="20">
